--- a/conf-core/src/test/resources/dataloader/slots-orphan-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/slots-orphan-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-900" yWindow="885" windowWidth="17820" windowHeight="8385"/>
   </bookViews>
@@ -114,11 +119,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +130,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -176,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -432,133 +435,99 @@
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="b">
+      <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
